--- a/app/tables/hibbard_patient_activation_measure/forms/hibbard_patient_activation_measure/hibbard_patient_activation_measure.xlsx
+++ b/app/tables/hibbard_patient_activation_measure/forms/hibbard_patient_activation_measure/hibbard_patient_activation_measure.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="187">
   <si>
     <t>branch_label</t>
   </si>
@@ -142,45 +142,9 @@
     <t>question5</t>
   </si>
   <si>
-    <t>Although others such as health workers and family members may help me, the ultimate responsibility for managing my health condition is on me.</t>
-  </si>
-  <si>
-    <t>The most important thing that determines my health and well-being is that I am at the forefront of taking care of my own health, and not expecting others to play the lead role in matters related to my health.</t>
-  </si>
-  <si>
-    <t>I know the effects and side effects of my medicines.</t>
-  </si>
-  <si>
-    <t>I feel sure that I know when I should seek medical care and when I can take care of things myself.</t>
-  </si>
-  <si>
     <t>question6</t>
   </si>
   <si>
-    <t>I am confident that I can tell a doctor concerns  I have even when he or she does not ask.</t>
-  </si>
-  <si>
-    <t>I understand why I come to the HIV clinic. I know what it means to have HIV and how to live positively. I know what causes it. I also know how the disease progresses with treatment and without treatment.</t>
-  </si>
-  <si>
-    <t>Because of my health condition, I had to make changes in my lifestyle. I have been able to maintain this new way of living/lifestyle.</t>
-  </si>
-  <si>
-    <t>I know [about] the healthcare services offered at hospitals that are available for treating my health condition.</t>
-  </si>
-  <si>
-    <t>I know the reasons for my health conditions and what it can do to my health.</t>
-  </si>
-  <si>
-    <t>I truly believe that I can carry out my medical treatment at home.</t>
-  </si>
-  <si>
-    <t>My health condition could worsen due to a number of things. However, I know what I need to do to prevent it from worsening.</t>
-  </si>
-  <si>
-    <t>I know how to prevent further problems when new situations or problems arise with my health condition.</t>
-  </si>
-  <si>
     <t>question7</t>
   </si>
   <si>
@@ -202,9 +166,6 @@
     <t>question13</t>
   </si>
   <si>
-    <t>question14</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -232,9 +193,6 @@
     <t>agree</t>
   </si>
   <si>
-    <t>I truly believe that I know the things that I need to do to prevent or minimize those symptoms and problems, and I can do those things needed to prevent/minimize.</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -508,18 +466,6 @@
     <t>question11_disagree</t>
   </si>
   <si>
-    <t>calculates.expand_agree_14()</t>
-  </si>
-  <si>
-    <t>calculates.expand_disagree_14()</t>
-  </si>
-  <si>
-    <t>question14_agree</t>
-  </si>
-  <si>
-    <t>question14_disagree</t>
-  </si>
-  <si>
     <t>calculates.expand_agree_13()</t>
   </si>
   <si>
@@ -562,9 +508,6 @@
     <t>expand_disagree_13</t>
   </si>
   <si>
-    <t>expand_agree_14</t>
-  </si>
-  <si>
     <t>selected(data('question9'), 'agree')</t>
   </si>
   <si>
@@ -595,16 +538,46 @@
     <t>selected(data('question11'), 'agree')</t>
   </si>
   <si>
-    <t>expand_disagree_14</t>
-  </si>
-  <si>
-    <t>selected(data('question14'), 'disagree')</t>
-  </si>
-  <si>
-    <t>selected(data('question14'), 'agree')</t>
-  </si>
-  <si>
     <t>Disagree</t>
+  </si>
+  <si>
+    <t>1.  Although others such as health workers and family members may help me, the ultimate responsibility for managing my health condition is on me.</t>
+  </si>
+  <si>
+    <t>2.  The most important thing that determines my health and well-being is that I am at the forefront of taking care of my own health, and not expecting others to play the lead role in matters related to my health.</t>
+  </si>
+  <si>
+    <t>3.  I truly believe that I know the things that I need to do to prevent or minimize those symptoms and problems, and I can do those things needed to prevent/minimize.</t>
+  </si>
+  <si>
+    <t>4.  I know the effects and side effects of my medicines.</t>
+  </si>
+  <si>
+    <t>5.  I feel sure that I know when I should seek medical care and when I can take care of things myself.</t>
+  </si>
+  <si>
+    <t>6.  I am confident that I can tell a doctor concerns  I have even when he or she does not ask.</t>
+  </si>
+  <si>
+    <t>7.  I truly believe that I can carry out my medical treatment at home.</t>
+  </si>
+  <si>
+    <t>8.  I know the reasons for my health conditions and what it can do to my health.  I understand why I come to the HIV clinic. I know what it means to have HIV and how to live positively. I know what causes it. I also know how the disease progresses with treatment and without treatment.</t>
+  </si>
+  <si>
+    <t>9.  I know [about] the healthcare services offered at hospitals that are available for treating my health condition.</t>
+  </si>
+  <si>
+    <t>11.  My health condition could worsen due to a number of things. However, I know what I need to do to prevent it from worsening.</t>
+  </si>
+  <si>
+    <t>12.  I know how to prevent further problems when new situations or problems arise with my health condition.</t>
+  </si>
+  <si>
+    <t>10.  Because of my health condition, I had to make changes in my lifestyle, such as taking medicine as prescribed and keeping appointments. I have been able to maintain this new way of living/lifestyle.</t>
+  </si>
+  <si>
+    <t>13.  I am sure that I can change my life to prioritize my health, such as adherence to medications, making clinic visits, and keeping a healthy diet, even during times of stress.</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W127"/>
+  <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +996,7 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="7" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
@@ -1111,7 +1084,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1145,15 +1118,15 @@
         <v>36</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E4" s="12"/>
       <c r="J4" s="7"/>
@@ -1163,27 +1136,27 @@
         <v>35</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J7" s="16"/>
     </row>
@@ -1192,30 +1165,30 @@
         <v>35</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J11" s="16"/>
     </row>
@@ -1230,15 +1203,15 @@
         <v>37</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J13" s="16"/>
     </row>
@@ -1247,27 +1220,27 @@
         <v>35</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J16" s="16"/>
     </row>
@@ -1276,30 +1249,30 @@
         <v>35</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J20" s="16"/>
     </row>
@@ -1314,15 +1287,15 @@
         <v>38</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J22" s="16"/>
     </row>
@@ -1331,27 +1304,27 @@
         <v>35</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J25" s="16"/>
     </row>
@@ -1360,30 +1333,30 @@
         <v>35</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J29" s="16"/>
     </row>
@@ -1398,15 +1371,15 @@
         <v>39</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J31" s="16"/>
     </row>
@@ -1415,27 +1388,27 @@
         <v>35</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J33" s="16"/>
     </row>
     <row r="34" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J34" s="16"/>
     </row>
@@ -1444,30 +1417,30 @@
         <v>35</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J37" s="16"/>
     </row>
     <row r="38" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J38" s="16"/>
     </row>
@@ -1482,15 +1455,15 @@
         <v>40</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J40" s="16"/>
     </row>
@@ -1499,27 +1472,27 @@
         <v>35</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J42" s="16"/>
     </row>
     <row r="43" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J43" s="16"/>
     </row>
@@ -1528,30 +1501,30 @@
         <v>35</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J45" s="16"/>
     </row>
     <row r="46" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J46" s="16"/>
     </row>
     <row r="47" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J47" s="16"/>
     </row>
@@ -1563,18 +1536,18 @@
         <v>26</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="J49" s="16"/>
     </row>
@@ -1583,27 +1556,27 @@
         <v>35</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J51" s="16"/>
     </row>
     <row r="52" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J52" s="16"/>
     </row>
@@ -1612,34 +1585,34 @@
         <v>35</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J54" s="16"/>
     </row>
     <row r="55" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J55" s="16"/>
     </row>
     <row r="56" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J56" s="16"/>
     </row>
-    <row r="57" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:10" ht="45" x14ac:dyDescent="0.25">
       <c r="G57" s="4" t="s">
         <v>35</v>
       </c>
@@ -1647,18 +1620,18 @@
         <v>26</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J58" s="16"/>
     </row>
@@ -1667,27 +1640,27 @@
         <v>35</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J60" s="16"/>
     </row>
     <row r="61" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="J61" s="16"/>
     </row>
@@ -1696,34 +1669,34 @@
         <v>35</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J63" s="16"/>
     </row>
     <row r="64" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J64" s="16"/>
     </row>
     <row r="65" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J65" s="16"/>
     </row>
-    <row r="66" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:10" ht="150" x14ac:dyDescent="0.25">
       <c r="G66" s="4" t="s">
         <v>35</v>
       </c>
@@ -1731,18 +1704,18 @@
         <v>26</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="J67" s="16"/>
     </row>
@@ -1751,27 +1724,27 @@
         <v>35</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C69" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J69" s="16"/>
     </row>
     <row r="70" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C70" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J70" s="16"/>
     </row>
@@ -1780,34 +1753,34 @@
         <v>35</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C72" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J72" s="16"/>
     </row>
     <row r="73" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C73" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J73" s="16"/>
     </row>
     <row r="74" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C74" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:10" ht="60" x14ac:dyDescent="0.25">
       <c r="G75" s="4" t="s">
         <v>35</v>
       </c>
@@ -1815,18 +1788,18 @@
         <v>26</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C76" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="J76" s="16"/>
     </row>
@@ -1835,27 +1808,27 @@
         <v>35</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C78" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J78" s="16"/>
     </row>
     <row r="79" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C79" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="J79" s="16"/>
     </row>
@@ -1864,34 +1837,34 @@
         <v>35</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J80" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J81" s="16"/>
     </row>
     <row r="82" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C82" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J82" s="16"/>
     </row>
     <row r="83" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C83" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J83" s="16"/>
     </row>
-    <row r="84" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="G84" s="4" t="s">
         <v>35</v>
       </c>
@@ -1899,18 +1872,18 @@
         <v>26</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C85" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="J85" s="16"/>
     </row>
@@ -1919,27 +1892,27 @@
         <v>35</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C87" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J87" s="16"/>
     </row>
     <row r="88" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C88" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J88" s="16"/>
     </row>
@@ -1948,30 +1921,30 @@
         <v>35</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J89" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C90" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J90" s="16"/>
     </row>
     <row r="91" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C91" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J91" s="16"/>
     </row>
     <row r="92" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C92" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J92" s="16"/>
     </row>
@@ -1983,18 +1956,18 @@
         <v>26</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C94" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="J94" s="16"/>
     </row>
@@ -2003,27 +1976,27 @@
         <v>35</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C96" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J96" s="16"/>
     </row>
     <row r="97" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C97" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J97" s="16"/>
     </row>
@@ -2032,34 +2005,34 @@
         <v>35</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C99" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J99" s="16"/>
     </row>
     <row r="100" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C100" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J100" s="16"/>
     </row>
     <row r="101" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C101" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J101" s="16"/>
     </row>
-    <row r="102" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="G102" s="4" t="s">
         <v>35</v>
       </c>
@@ -2067,18 +2040,18 @@
         <v>26</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C103" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J103" s="16"/>
     </row>
@@ -2087,27 +2060,27 @@
         <v>35</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C105" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J105" s="16"/>
     </row>
     <row r="106" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C106" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J106" s="16"/>
     </row>
@@ -2116,34 +2089,34 @@
         <v>35</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C108" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J108" s="16"/>
     </row>
     <row r="109" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C109" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J109" s="16"/>
     </row>
     <row r="110" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C110" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="3:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G111" s="4" t="s">
         <v>35</v>
       </c>
@@ -2151,18 +2124,18 @@
         <v>26</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C112" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J112" s="16"/>
     </row>
@@ -2171,27 +2144,27 @@
         <v>35</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C114" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J114" s="16"/>
     </row>
     <row r="115" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C115" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="J115" s="16"/>
     </row>
@@ -2200,110 +2173,26 @@
         <v>35</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J116" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C117" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J117" s="16"/>
     </row>
     <row r="118" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C118" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J118" s="16"/>
-    </row>
-    <row r="119" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J119" s="16"/>
-    </row>
-    <row r="120" spans="3:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="G120" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="121" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J121" s="16"/>
-    </row>
-    <row r="122" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G122" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H122" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I122" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="J122" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="123" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J123" s="16"/>
-    </row>
-    <row r="124" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="J124" s="16"/>
-    </row>
-    <row r="125" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G125" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H125" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I125" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="J125" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="126" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J126" s="16"/>
-    </row>
-    <row r="127" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J127" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A42" sqref="A40:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,7 +2216,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>10</v>
@@ -2335,82 +2224,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2419,18 +2308,18 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,18 +2328,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2459,120 +2348,103 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2611,10 +2483,10 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,15 +2505,15 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -2652,7 +2524,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -2663,7 +2535,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -2674,7 +2546,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -2705,10 +2577,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>21</v>
@@ -2716,25 +2588,25 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B4" s="9">
         <v>20141008</v>
@@ -2743,11 +2615,11 @@
     </row>
     <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
